--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -2562,6 +2562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3278,7 +3279,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3736,6 +3738,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="118">
   <si>
     <t>Materia</t>
   </si>
@@ -164,15 +164,15 @@
     <t>Flores Ovalle Victor</t>
   </si>
   <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
     <t>Rivera Serra Alma Lilian</t>
   </si>
   <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -185,6 +185,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
@@ -194,18 +197,30 @@
     <t>CANCINO</t>
   </si>
   <si>
+    <t>CERONIO</t>
+  </si>
+  <si>
+    <t>CRESCENCIO</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>GIRON</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -218,6 +233,9 @@
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>TELE</t>
+  </si>
+  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
@@ -227,36 +245,54 @@
     <t>URBINA</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
     <t>YOPIHUA</t>
   </si>
   <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>MATEOS</t>
   </si>
   <si>
     <t>GUERRA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>CUEVAS</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>DOLORES</t>
   </si>
   <si>
     <t>ISIDRO</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
     <t>ARIZA</t>
   </si>
   <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
@@ -266,39 +302,63 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
+    <t>ADALI</t>
+  </si>
+  <si>
+    <t>MIRIAM AMERICA</t>
+  </si>
+  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
+    <t>MARI CARMEN</t>
+  </si>
+  <si>
     <t>JESUS ALFONSO</t>
   </si>
   <si>
     <t>DANIEL</t>
   </si>
   <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
     <t>YOZELIN</t>
   </si>
   <si>
     <t>ISABEL</t>
   </si>
   <si>
+    <t>EMIR ANDRES</t>
+  </si>
+  <si>
     <t>JOEL EDUARDO</t>
   </si>
   <si>
     <t>MONSERRAT</t>
   </si>
   <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
     <t>LUZ GUADALUPE</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>RAUL</t>
   </si>
   <si>
+    <t>PAMELA DENISSE</t>
+  </si>
+  <si>
     <t>OSCAR</t>
   </si>
   <si>
+    <t>SAHARA DE JESUS</t>
+  </si>
+  <si>
     <t>CARLOS</t>
   </si>
   <si>
@@ -308,70 +368,10 @@
     <t>ARACELI</t>
   </si>
   <si>
+    <t>KARINA</t>
+  </si>
+  <si>
     <t>AMAYRANI</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>CERONIO</t>
-  </si>
-  <si>
-    <t>CRESCENCIO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TELE</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MONTES</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>ADALI</t>
-  </si>
-  <si>
-    <t>MIRIAM AMERICA</t>
-  </si>
-  <si>
-    <t>MARI CARMEN</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>EMIR ANDRES</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>PAMELA DENISSE</t>
-  </si>
-  <si>
-    <t>SAHARA DE JESUS</t>
-  </si>
-  <si>
-    <t>KARINA</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>-1</v>
@@ -914,7 +914,7 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -973,7 +973,7 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1032,7 +1032,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1091,7 +1091,7 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1209,7 +1209,7 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1268,7 +1268,7 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1309,7 +1309,7 @@
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1327,7 +1327,7 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1368,7 +1368,7 @@
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1445,7 +1445,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>-1</v>
@@ -1504,7 +1504,7 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>-1</v>
@@ -1622,7 +1622,7 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>-1</v>
@@ -1681,7 +1681,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <v>-1</v>
@@ -1740,7 +1740,7 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -1781,7 +1781,7 @@
         <v>-1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -1899,7 +1899,7 @@
         <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -1976,7 +1976,7 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2153,7 +2153,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2271,7 +2271,7 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2464,30 +2464,30 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2496,30 +2496,30 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>4</v>
-      </c>
-      <c r="F6">
-        <v>84</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2528,25 +2528,25 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2588,576 +2588,576 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920220</v>
+        <v>18330051920224</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920228</v>
+        <v>18330051920224</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920237</v>
+        <v>18330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920237</v>
+        <v>18330051920224</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920237</v>
+        <v>18330051920224</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920237</v>
+        <v>18330051920226</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17330051420245</v>
+        <v>18330051920226</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>17330051420245</v>
+        <v>18330051920226</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>17330051420245</v>
+        <v>18330051920226</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>17330051420245</v>
+        <v>18330051920226</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>17330051420245</v>
+        <v>18330051920220</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920246</v>
+        <v>18330051920220</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920248</v>
+        <v>18330051920220</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920248</v>
+        <v>18330051920220</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920245</v>
+        <v>18330051920220</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920245</v>
+        <v>17330051420363</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920245</v>
+        <v>17330051420363</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920245</v>
+        <v>17330051420363</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17330051920302</v>
+        <v>17330051420363</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920256</v>
+        <v>17330051420363</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920272</v>
+        <v>18330051920228</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920272</v>
+        <v>18330051920228</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920272</v>
+        <v>18330051920228</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920272</v>
+        <v>18330051920228</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920278</v>
+        <v>18330051920228</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920278</v>
+        <v>18330051920237</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920278</v>
+        <v>18330051920237</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920278</v>
+        <v>18330051920237</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920283</v>
+        <v>18330051920237</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -3168,102 +3168,2022 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920285</v>
+        <v>18330051920237</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920285</v>
+        <v>18330051920240</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920285</v>
+        <v>18330051920240</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920286</v>
+        <v>18330051920240</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920292</v>
+        <v>18330051920240</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>18330051920240</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>18330051920244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>18330051920244</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>18330051920244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>18330051920244</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>18330051920244</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>17330051420245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>17330051420245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>17330051420245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>17330051420245</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>17330051420245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>17330051420245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>18330051920246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>18330051920246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920246</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920246</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330061460060</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330061460060</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330061460060</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330061460060</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330061460060</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920248</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920245</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920245</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920245</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920245</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920250</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920250</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920250</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920250</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920250</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>17330051920302</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>17330051920302</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>17330051920302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>17330051920302</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>17330051920302</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920256</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920256</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920256</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920256</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920272</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920272</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920274</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920274</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920274</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920274</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920274</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920278</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920278</v>
+      </c>
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920278</v>
+      </c>
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920278</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920305</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920305</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920283</v>
+      </c>
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920283</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920283</v>
+      </c>
+      <c r="B108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920283</v>
+      </c>
+      <c r="B109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920283</v>
+      </c>
+      <c r="B110" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920285</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>18330051920285</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920285</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920285</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920285</v>
+      </c>
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920285</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920286</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920286</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920286</v>
+      </c>
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920286</v>
+      </c>
+      <c r="B120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" t="s">
+        <v>115</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>18330051920286</v>
+      </c>
+      <c r="B121" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>18330051920289</v>
+      </c>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+      <c r="D122" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>18330051920289</v>
+      </c>
+      <c r="B123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>18330051920289</v>
+      </c>
+      <c r="B124" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>18330051920289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>18330051920289</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>18330051920292</v>
+      </c>
+      <c r="B127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>18330051920292</v>
+      </c>
+      <c r="B128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>18330051920292</v>
+      </c>
+      <c r="B129" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>18330051920292</v>
+      </c>
+      <c r="B130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>18330051920292</v>
+      </c>
+      <c r="B131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3305,16 +5225,16 @@
         <v>17330051420245</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3322,16 +5242,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3339,16 +5259,16 @@
         <v>18330051920245</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3356,16 +5276,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3373,16 +5293,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3390,13 +5310,13 @@
         <v>18330051920285</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3407,13 +5327,13 @@
         <v>18330051920248</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3424,13 +5344,13 @@
         <v>18330051920220</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3441,13 +5361,13 @@
         <v>18330051920228</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3458,13 +5378,13 @@
         <v>18330051920246</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3475,13 +5395,13 @@
         <v>17330051920302</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3492,13 +5412,13 @@
         <v>18330051920256</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3509,13 +5429,13 @@
         <v>18330051920283</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3526,13 +5446,13 @@
         <v>18330051920286</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3543,13 +5463,13 @@
         <v>18330051920292</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3560,13 +5480,13 @@
         <v>18330051920224</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3577,13 +5497,13 @@
         <v>18330051920226</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3594,13 +5514,13 @@
         <v>17330051420363</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3611,13 +5531,13 @@
         <v>18330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3628,13 +5548,13 @@
         <v>18330051920244</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3645,13 +5565,13 @@
         <v>18330061460060</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3662,13 +5582,13 @@
         <v>18330051920250</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3679,13 +5599,13 @@
         <v>18330051920274</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3696,13 +5616,13 @@
         <v>18330051920305</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3713,13 +5633,13 @@
         <v>18330051920289</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3732,7 +5652,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3765,236 +5685,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920248</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>17330051920302</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920283</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920286</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="118">
   <si>
     <t>Materia</t>
   </si>
@@ -155,22 +155,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
-  </si>
-  <si>
     <t>Flores Ovalle Victor</t>
   </si>
   <si>
+    <t>Rivera Serra Alma Lilian</t>
+  </si>
+  <si>
     <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
     <t>Flores González Ángel</t>
-  </si>
-  <si>
-    <t>Rivera Serra Alma Lilian</t>
   </si>
   <si>
     <t>NC</t>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -911,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>8</v>
@@ -923,10 +923,10 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>9</v>
@@ -982,10 +982,10 @@
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1029,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1041,10 +1041,10 @@
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -1100,10 +1100,10 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1129,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1159,7 +1159,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1218,10 +1218,10 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1265,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1336,10 +1336,10 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1377,7 +1377,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1395,7 +1395,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1454,10 +1454,10 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1513,10 +1513,10 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1572,10 +1572,10 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1631,10 +1631,10 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>9</v>
@@ -1690,10 +1690,10 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1737,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>9</v>
@@ -1749,10 +1749,10 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1778,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1808,7 +1808,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1855,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1867,10 +1867,10 @@
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1926,7 +1926,7 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>9</v>
@@ -1985,10 +1985,10 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2032,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>9</v>
@@ -2044,10 +2044,10 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2073,7 +2073,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -2103,10 +2103,10 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -2162,10 +2162,10 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2209,7 +2209,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>10</v>
@@ -2221,10 +2221,10 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2268,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -2280,10 +2280,10 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -2368,30 +2368,27 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>48</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -2400,25 +2397,22 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>68</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>9.4</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2435,13 +2429,13 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>72</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>8.6</v>
@@ -2455,7 +2449,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2464,30 +2458,30 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2496,30 +2490,30 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2556,7 +2550,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2600,10 +2594,10 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2620,107 +2614,107 @@
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920224</v>
+        <v>18330051920226</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920224</v>
+        <v>18330051920226</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920224</v>
+        <v>18330051920220</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920226</v>
+        <v>18330051920220</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920226</v>
+        <v>17330051420363</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -2728,59 +2722,59 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920226</v>
+        <v>17330051420363</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920226</v>
+        <v>18330051920228</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920226</v>
+        <v>18330051920228</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -2788,139 +2782,139 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920220</v>
+        <v>18330051920237</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920220</v>
+        <v>18330051920237</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920220</v>
+        <v>18330051920237</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920220</v>
+        <v>18330051920237</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920220</v>
+        <v>18330051920240</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>17330051420363</v>
+        <v>18330051920240</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>17330051420363</v>
+        <v>18330051920244</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -2928,79 +2922,79 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>17330051420363</v>
+        <v>18330051920244</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17330051420363</v>
+        <v>17330051420245</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>17330051420363</v>
+        <v>17330051420245</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920228</v>
+        <v>17330051420245</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -3008,19 +3002,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920228</v>
+        <v>17330051420245</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>48</v>
@@ -3028,139 +3022,139 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920228</v>
+        <v>17330051420245</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920228</v>
+        <v>18330051920246</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920228</v>
+        <v>18330051920246</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920237</v>
+        <v>18330061460060</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920237</v>
+        <v>18330061460060</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920237</v>
+        <v>18330051920248</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920237</v>
+        <v>18330051920248</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
@@ -3168,59 +3162,59 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920237</v>
+        <v>18330051920248</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920240</v>
+        <v>18330051920248</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920240</v>
+        <v>18330051920245</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>46</v>
@@ -3228,159 +3222,159 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920240</v>
+        <v>18330051920245</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920240</v>
+        <v>18330051920245</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920240</v>
+        <v>18330051920250</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920244</v>
+        <v>18330051920250</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920244</v>
+        <v>17330051920302</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920244</v>
+        <v>17330051920302</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920244</v>
+        <v>18330051920256</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920244</v>
+        <v>18330051920256</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
@@ -3388,19 +3382,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>17330051420245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
@@ -3408,99 +3402,99 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>17330051420245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>17330051420245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>17330051420245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>17330051420245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>17330051420245</v>
+        <v>18330051920274</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
         <v>46</v>
@@ -3508,1682 +3502,402 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920246</v>
+        <v>18330051920274</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920246</v>
+        <v>18330051920278</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920246</v>
+        <v>18330051920278</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920246</v>
+        <v>18330051920278</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920246</v>
+        <v>18330051920278</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330061460060</v>
+        <v>18330051920278</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330061460060</v>
+        <v>18330051920305</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330061460060</v>
+        <v>18330051920305</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330061460060</v>
+        <v>18330051920283</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330061460060</v>
+        <v>18330051920283</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920248</v>
+        <v>18330051920285</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920248</v>
+        <v>18330051920285</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920248</v>
+        <v>18330051920285</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920248</v>
+        <v>18330051920285</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920248</v>
+        <v>18330051920286</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920248</v>
+        <v>18330051920286</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920245</v>
+        <v>18330051920289</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920245</v>
+        <v>18330051920289</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920245</v>
+        <v>18330051920292</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920245</v>
+        <v>18330051920292</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920245</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920250</v>
-      </c>
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920250</v>
-      </c>
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920250</v>
-      </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920250</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920250</v>
-      </c>
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>17330051920302</v>
-      </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>17330051920302</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>17330051920302</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>17330051920302</v>
-      </c>
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>17330051920302</v>
-      </c>
-      <c r="B78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920256</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920256</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920256</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920256</v>
-      </c>
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920256</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920272</v>
-      </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920272</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920272</v>
-      </c>
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920272</v>
-      </c>
-      <c r="B87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920272</v>
-      </c>
-      <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920272</v>
-      </c>
-      <c r="B89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
-        <v>64</v>
-      </c>
-      <c r="D89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920274</v>
-      </c>
-      <c r="B90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
-        <v>110</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920274</v>
-      </c>
-      <c r="B91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920274</v>
-      </c>
-      <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920274</v>
-      </c>
-      <c r="B93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920274</v>
-      </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920278</v>
-      </c>
-      <c r="B95" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920278</v>
-      </c>
-      <c r="B96" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920278</v>
-      </c>
-      <c r="B97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920278</v>
-      </c>
-      <c r="B98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920278</v>
-      </c>
-      <c r="B99" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920278</v>
-      </c>
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920305</v>
-      </c>
-      <c r="B101" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920305</v>
-      </c>
-      <c r="B102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" t="s">
-        <v>90</v>
-      </c>
-      <c r="D102" t="s">
-        <v>112</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920305</v>
-      </c>
-      <c r="B103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920305</v>
-      </c>
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920305</v>
-      </c>
-      <c r="B105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D105" t="s">
-        <v>112</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920283</v>
-      </c>
-      <c r="B106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" t="s">
-        <v>113</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920283</v>
-      </c>
-      <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920283</v>
-      </c>
-      <c r="B108" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" t="s">
-        <v>113</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920283</v>
-      </c>
-      <c r="B109" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" t="s">
-        <v>113</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920283</v>
-      </c>
-      <c r="B110" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920285</v>
-      </c>
-      <c r="B111" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920285</v>
-      </c>
-      <c r="B112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920285</v>
-      </c>
-      <c r="B113" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" t="s">
-        <v>114</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920285</v>
-      </c>
-      <c r="B114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" t="s">
-        <v>114</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920285</v>
-      </c>
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115" t="s">
-        <v>91</v>
-      </c>
-      <c r="D115" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920285</v>
-      </c>
-      <c r="B116" t="s">
-        <v>73</v>
-      </c>
-      <c r="C116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920286</v>
-      </c>
-      <c r="B117" t="s">
-        <v>74</v>
-      </c>
-      <c r="C117" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920286</v>
-      </c>
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920286</v>
-      </c>
-      <c r="B119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920286</v>
-      </c>
-      <c r="B120" t="s">
-        <v>74</v>
-      </c>
-      <c r="C120" t="s">
-        <v>92</v>
-      </c>
-      <c r="D120" t="s">
-        <v>115</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>18330051920286</v>
-      </c>
-      <c r="B121" t="s">
-        <v>74</v>
-      </c>
-      <c r="C121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" t="s">
-        <v>115</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>18330051920289</v>
-      </c>
-      <c r="B122" t="s">
-        <v>75</v>
-      </c>
-      <c r="C122" t="s">
-        <v>73</v>
-      </c>
-      <c r="D122" t="s">
-        <v>116</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>18330051920289</v>
-      </c>
-      <c r="B123" t="s">
-        <v>75</v>
-      </c>
-      <c r="C123" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" t="s">
-        <v>116</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>18330051920289</v>
-      </c>
-      <c r="B124" t="s">
-        <v>75</v>
-      </c>
-      <c r="C124" t="s">
-        <v>73</v>
-      </c>
-      <c r="D124" t="s">
-        <v>116</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>18330051920289</v>
-      </c>
-      <c r="B125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C125" t="s">
-        <v>73</v>
-      </c>
-      <c r="D125" t="s">
-        <v>116</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>18330051920289</v>
-      </c>
-      <c r="B126" t="s">
-        <v>75</v>
-      </c>
-      <c r="C126" t="s">
-        <v>73</v>
-      </c>
-      <c r="D126" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>18330051920292</v>
-      </c>
-      <c r="B127" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>18330051920292</v>
-      </c>
-      <c r="B128" t="s">
-        <v>76</v>
-      </c>
-      <c r="C128" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>18330051920292</v>
-      </c>
-      <c r="B129" t="s">
-        <v>76</v>
-      </c>
-      <c r="C129" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>18330051920292</v>
-      </c>
-      <c r="B130" t="s">
-        <v>76</v>
-      </c>
-      <c r="C130" t="s">
-        <v>93</v>
-      </c>
-      <c r="D130" t="s">
-        <v>117</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>18330051920292</v>
-      </c>
-      <c r="B131" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" t="s">
-        <v>93</v>
-      </c>
-      <c r="D131" t="s">
-        <v>117</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5234,75 +3948,75 @@
         <v>102</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920237</v>
+        <v>18330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920245</v>
+        <v>18330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920272</v>
+        <v>18330051920237</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920278</v>
+        <v>18330051920248</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5319,330 +4033,330 @@
         <v>114</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920248</v>
+        <v>18330051920245</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920220</v>
+        <v>18330051920224</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920228</v>
+        <v>18330051920226</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920246</v>
+        <v>18330051920220</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>17330051920302</v>
+        <v>17330051420363</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920256</v>
+        <v>18330051920228</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920283</v>
+        <v>18330051920240</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920286</v>
+        <v>18330051920244</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920292</v>
+        <v>18330051920246</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920224</v>
+        <v>18330061460060</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920226</v>
+        <v>18330051920250</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17330051420363</v>
+        <v>17330051920302</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920240</v>
+        <v>18330051920256</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>100</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920244</v>
+        <v>18330051920274</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330061460060</v>
+        <v>18330051920305</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920250</v>
+        <v>18330051920283</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920274</v>
+        <v>18330051920286</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920305</v>
+        <v>18330051920289</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920289</v>
+        <v>18330051920292</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5652,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5682,7 +4396,835 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>17330051420363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>17330051420363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330061460060</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330061460060</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920250</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>17330051920302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>17330051920302</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920274</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920274</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>18330051920305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>18330051920283</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>18330051920283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>18330051920286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>18330051920286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18330051920289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>18330051920289</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>18330051920292</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>18330051920292</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
   <si>
     <t>Materia</t>
   </si>
@@ -155,24 +155,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
+    <t>Rivera Serra Alma Lilian</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
     <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>Rivera Serra Alma Lilian</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -185,6 +185,66 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CANCINO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
+  </si>
+  <si>
+    <t>ARIZA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>YOZELIN</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>ELISAMAR</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
@@ -194,30 +254,18 @@
     <t>BAEZ</t>
   </si>
   <si>
-    <t>CANCINO</t>
-  </si>
-  <si>
     <t>CERONIO</t>
   </si>
   <si>
     <t>CRESCENCIO</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>GIRON</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -227,21 +275,12 @@
     <t>MAYAHUA</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>TELE</t>
   </si>
   <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>URBINA</t>
   </si>
   <si>
@@ -260,42 +299,24 @@
     <t>MATEOS</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>MONTES</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>CUEVAS</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>ISIDRO</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
-    <t>ARIZA</t>
-  </si>
-  <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
     <t>TREJO</t>
   </si>
   <si>
@@ -317,52 +338,31 @@
     <t>JESUS ALFONSO</t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
     <t>MARIA FERNANDA</t>
   </si>
   <si>
     <t>SANDRA</t>
   </si>
   <si>
-    <t>YOZELIN</t>
-  </si>
-  <si>
     <t>ISABEL</t>
   </si>
   <si>
     <t>EMIR ANDRES</t>
   </si>
   <si>
-    <t>JOEL EDUARDO</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
     <t>ELIZABETH</t>
   </si>
   <si>
     <t>LUZ GUADALUPE</t>
   </si>
   <si>
-    <t>RAUL</t>
-  </si>
-  <si>
     <t>PAMELA DENISSE</t>
   </si>
   <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
     <t>SAHARA DE JESUS</t>
   </si>
   <si>
     <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ELISAMAR</t>
   </si>
   <si>
     <t>ARACELI</t>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -858,10 +858,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -917,10 +917,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -976,10 +976,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1035,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1079,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1094,10 +1094,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1153,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1271,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -1330,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1389,7 +1389,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1448,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1507,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -1566,10 +1566,10 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1625,10 +1625,10 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1743,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -1784,10 +1784,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1802,10 +1802,10 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -1861,10 +1861,10 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -1902,10 +1902,10 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1920,10 +1920,10 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1979,10 +1979,10 @@
         <v>9</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -2038,10 +2038,10 @@
         <v>9</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2079,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2156,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -2215,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>7</v>
@@ -2259,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -2274,10 +2274,10 @@
         <v>9</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L28">
         <v>8</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -2368,27 +2368,30 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>8.6</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -2397,27 +2400,30 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>9.1</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -2426,30 +2432,30 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2458,30 +2464,30 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -2490,30 +2496,30 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2550,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2582,239 +2588,239 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920224</v>
+        <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920224</v>
+        <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920226</v>
+        <v>17330051420245</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920226</v>
+        <v>17330051420245</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920220</v>
+        <v>17330051420245</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920220</v>
+        <v>17330051420245</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17330051420363</v>
+        <v>18330051920248</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>17330051420363</v>
+        <v>18330051920248</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920228</v>
+        <v>18330051920245</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920228</v>
+        <v>18330051920245</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920237</v>
+        <v>18330051920272</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920237</v>
+        <v>18330051920272</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920237</v>
+        <v>18330051920272</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920237</v>
+        <v>18330051920278</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -2862,1042 +2868,102 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920240</v>
+        <v>18330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920240</v>
+        <v>18330051920278</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920244</v>
+        <v>18330051920285</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920244</v>
+        <v>18330051920285</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17330051420245</v>
+        <v>18330051920285</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>17330051420245</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>17330051420245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>17330051420245</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>17330051420245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>18330051920246</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>18330051920246</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>18330061460060</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>18330061460060</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>18330051920248</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>18330051920248</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>18330051920248</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>18330051920248</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>18330051920245</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>18330051920245</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920245</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>18330051920250</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>18330051920250</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>17330051920302</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>17330051920302</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>18330051920256</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>18330051920256</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>18330051920272</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>18330051920272</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>18330051920272</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>18330051920272</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>18330051920272</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920274</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920274</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920278</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920278</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920278</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920278</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920278</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920305</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920305</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920283</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920283</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920285</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920285</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920285</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920286</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920286</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920289</v>
-      </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920289</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920292</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920292</v>
-      </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3939,16 +3005,16 @@
         <v>17330051420245</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3956,16 +3022,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3973,67 +3039,67 @@
         <v>18330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920237</v>
+        <v>18330051920285</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920248</v>
+        <v>18330051920237</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920285</v>
+        <v>18330051920248</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4041,16 +3107,16 @@
         <v>18330051920245</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4058,16 +3124,16 @@
         <v>18330051920224</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4075,16 +3141,16 @@
         <v>18330051920226</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4092,16 +3158,16 @@
         <v>18330051920220</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4109,16 +3175,16 @@
         <v>17330051420363</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4126,16 +3192,16 @@
         <v>18330051920228</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4143,16 +3209,16 @@
         <v>18330051920240</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4160,16 +3226,16 @@
         <v>18330051920244</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4177,16 +3243,16 @@
         <v>18330051920246</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4194,16 +3260,16 @@
         <v>18330061460060</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4211,16 +3277,16 @@
         <v>18330051920250</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4228,16 +3294,16 @@
         <v>17330051920302</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4245,16 +3311,16 @@
         <v>18330051920256</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4262,16 +3328,16 @@
         <v>18330051920274</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4279,16 +3345,16 @@
         <v>18330051920305</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4296,16 +3362,16 @@
         <v>18330051920283</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4313,16 +3379,16 @@
         <v>18330051920286</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>115</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4330,16 +3396,16 @@
         <v>18330051920289</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4347,16 +3413,16 @@
         <v>18330051920292</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>117</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +3432,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4401,19 +3467,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920224</v>
+        <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -4424,22 +3490,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920224</v>
+        <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -4447,19 +3513,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920226</v>
+        <v>18330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -4470,19 +3536,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920226</v>
+        <v>18330051920248</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -4493,19 +3559,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920220</v>
+        <v>18330051920245</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
@@ -4516,714 +3582,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920220</v>
+        <v>18330051920245</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>17330051420363</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>17330051420363</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920228</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920244</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920246</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920246</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330061460060</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330061460060</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18330051920250</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>17330051920302</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>17330051920302</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>18330051920256</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920256</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>18330051920274</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>18330051920274</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>18330051920305</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>18330051920305</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>18330051920283</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>18330051920283</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>18330051920286</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>18330051920286</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>18330051920289</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>18330051920289</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>18330051920292</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>18330051920292</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
   <si>
     <t>Materia</t>
   </si>
@@ -1563,7 +1563,7 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -2412,13 +2412,13 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2556,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920248</v>
+        <v>18330051920245</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2760,30 +2760,30 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920245</v>
+        <v>18330051920272</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2800,10 +2800,10 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2820,30 +2820,30 @@
         <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920272</v>
+        <v>18330051920278</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2860,10 +2860,10 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2880,30 +2880,30 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920278</v>
+        <v>18330051920285</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2920,10 +2920,10 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2940,29 +2940,9 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>18330051920285</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3087,16 +3067,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920248</v>
+        <v>18330051920245</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3104,19 +3084,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920245</v>
+        <v>18330051920248</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3554,7 +3534,7 @@
         <v>46</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">

--- a/grupos/6ALCV - Estadisticos 2020.xlsx
+++ b/grupos/6ALCV - Estadisticos 2020.xlsx
@@ -170,7 +170,7 @@
     <t>Flores González Ángel</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
